--- a/biology/Botanique/Hypne_cyprès/Hypne_cyprès.xlsx
+++ b/biology/Botanique/Hypne_cyprès/Hypne_cyprès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypne_cypr%C3%A8s</t>
+          <t>Hypne_cyprès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypnum cupressiforme
-L'Hypne cyprès ou Hypnum cupressiforme est une mousse cosmopolite très commune, à amplitude écologique très large, poussant sur toutes sortes de surfaces comme des troncs d'arbres, des murs ou des rochers[1]. C'est une espèce très polymorphe, qui présente de nombreuses variétés différentes. 
+L'Hypne cyprès ou Hypnum cupressiforme est une mousse cosmopolite très commune, à amplitude écologique très large, poussant sur toutes sortes de surfaces comme des troncs d'arbres, des murs ou des rochers. C'est une espèce très polymorphe, qui présente de nombreuses variétés différentes. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypne_cypr%C3%A8s</t>
+          <t>Hypne_cyprès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Hypnum viendrait du grec hypnos, sommeil, le botaniste Dillenius donnant en 1741 les raisons de cette étymologie : jadis, elle servait au remplissage de matelas ou d'oreiller, et cette mousse aurait des propriétés soporifiques. L'épithète spécifique cupressiforme fait référence à son axe feuillé qui évoque un rameau de cyprès. En réalité, les grecs donnaient le nom d'hupnon à des mousses poussant sur les arbres, d'où le nom du genre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Hypnum viendrait du grec hypnos, sommeil, le botaniste Dillenius donnant en 1741 les raisons de cette étymologie : jadis, elle servait au remplissage de matelas ou d'oreiller, et cette mousse aurait des propriétés soporifiques. L'épithète spécifique cupressiforme fait référence à son axe feuillé qui évoque un rameau de cyprès. En réalité, les grecs donnaient le nom d'hupnon à des mousses poussant sur les arbres, d'où le nom du genre.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypne_cypr%C3%A8s</t>
+          <t>Hypne_cyprès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace rampante de 3 à 10 cm de long, elle porte des rameaux arrondis couchés ou dressé, souvent d'un vert assez sombre. La ramification est irrégulièrement pennée. Les feuilles couvrent totalement la tige, sont falciformes à longues pointes effilées, toutes tournées vers le substrat et à marge souvent denticulée vers l'apex[3],[4]. Les coins de la base des feuilles présentent un groupe de cellules différenciées, appelées cellules allaires. Chez cette espèce les cellules allaires forment un creux dans la feuille.
-Il existe plusieurs variétés, parfois considérées comme des espèces ou des sous-espèces, dont l'apparence diffère parfois beaucoup de la variété type[1]. Les variétés reconnues par l'INPN pour la France sont les suivantes[5] :
-var. cupressiforme : variété type, feuilles denticulées, toutes secondes, taille moyenne, sur substrats artificiels et écorces, toujours à l'horizontal[6]. C'est la variété la plus commune.
-var. filiforme : feuilles entières à légèrement denticulées, non secondes, petite taille, sur rochers et bases des arbres, à la verticale[6]. Variété très commune.
-var heseleri : feuilles entières, non secondes, concaves, ovales, petite taille, sur troncs[7]. variété très rare.
-var lacunosum : feuilles entières à légèrement denticulées, secondes, rameaux gonflés, grande taille, sur le sol ou les roches[6].
-var subjulaceum : feuilles entières à légèrement denticulées, secondes, rameaux normaux, taille moyenne, sols calcaires ou riche en humus[6].
-Cet hypne est utilisée pour servir à l'estimation de polluants atmosphériques. Bioaccumulateur, il permet de cartographier la pollution présente et d'un passé récent[8]. La croissance de son axe principal est de 1,3 cm/an, de 0,2 à 1,2 cm/an pour ses axes latéraux[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace rampante de 3 à 10 cm de long, elle porte des rameaux arrondis couchés ou dressé, souvent d'un vert assez sombre. La ramification est irrégulièrement pennée. Les feuilles couvrent totalement la tige, sont falciformes à longues pointes effilées, toutes tournées vers le substrat et à marge souvent denticulée vers l'apex,. Les coins de la base des feuilles présentent un groupe de cellules différenciées, appelées cellules allaires. Chez cette espèce les cellules allaires forment un creux dans la feuille.
+Il existe plusieurs variétés, parfois considérées comme des espèces ou des sous-espèces, dont l'apparence diffère parfois beaucoup de la variété type. Les variétés reconnues par l'INPN pour la France sont les suivantes :
+var. cupressiforme : variété type, feuilles denticulées, toutes secondes, taille moyenne, sur substrats artificiels et écorces, toujours à l'horizontal. C'est la variété la plus commune.
+var. filiforme : feuilles entières à légèrement denticulées, non secondes, petite taille, sur rochers et bases des arbres, à la verticale. Variété très commune.
+var heseleri : feuilles entières, non secondes, concaves, ovales, petite taille, sur troncs. variété très rare.
+var lacunosum : feuilles entières à légèrement denticulées, secondes, rameaux gonflés, grande taille, sur le sol ou les roches.
+var subjulaceum : feuilles entières à légèrement denticulées, secondes, rameaux normaux, taille moyenne, sols calcaires ou riche en humus.
+Cet hypne est utilisée pour servir à l'estimation de polluants atmosphériques. Bioaccumulateur, il permet de cartographier la pollution présente et d'un passé récent. La croissance de son axe principal est de 1,3 cm/an, de 0,2 à 1,2 cm/an pour ses axes latéraux.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypne_cypr%C3%A8s</t>
+          <t>Hypne_cyprès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante mésohygrophile, son substrat est varié, humicole à corticole (voire sapro-lignicole)[4]. Elle est très commune sur les troncs d'arbres en forêt, les rochers, le sol nu et les habitats artificiels (toits, béton, murs ect.). 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante mésohygrophile, son substrat est varié, humicole à corticole (voire sapro-lignicole). Elle est très commune sur les troncs d'arbres en forêt, les rochers, le sol nu et les habitats artificiels (toits, béton, murs ect.). 
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypne_cypr%C3%A8s</t>
+          <t>Hypne_cyprès</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 Apr 2012)[10] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 Apr 2012) :
 non-classé Hypnum cupressiforme var. filiforme
 non-classé Hypnum cupressiforme var. lacunosum
 non-classé Hypnum cupressiforme var. mammillatum
